--- a/relatorios/repasses_liberados/dentistas/01018935401/2023-08-25_relatorio_repasses_01018935401.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01018935401/2023-08-25_relatorio_repasses_01018935401.xlsx
@@ -3360,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3800,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3844,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4988,10 +4988,10 @@
         <v>1</v>
       </c>
       <c r="M82">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -7188,10 +7188,10 @@
         <v>0.808333</v>
       </c>
       <c r="M132">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N132">
-        <v>62.72664080000001</v>
+        <v>47.0449806</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7232,10 +7232,10 @@
         <v>0.066667</v>
       </c>
       <c r="M133">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N133">
-        <v>0.3200016</v>
+        <v>0.4266688000000001</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8068,10 +8068,10 @@
         <v>1</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N152">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -9608,10 +9608,10 @@
         <v>0.465116</v>
       </c>
       <c r="M187">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N187">
-        <v>11.162784</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9652,10 +9652,10 @@
         <v>0.534884</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>14.7627984</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9960,10 +9960,10 @@
         <v>1</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -11016,10 +11016,10 @@
         <v>0.1</v>
       </c>
       <c r="M219">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11060,10 +11060,10 @@
         <v>0.1</v>
       </c>
       <c r="M220">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -11104,10 +11104,10 @@
         <v>1</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N221">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -11940,10 +11940,10 @@
         <v>1</v>
       </c>
       <c r="M240">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N240">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -13700,10 +13700,10 @@
         <v>1</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N280">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -14360,10 +14360,10 @@
         <v>0.534884</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
-        <v>19.6837312</v>
+        <v>14.7627984</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14668,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -14756,10 +14756,10 @@
         <v>1</v>
       </c>
       <c r="M304">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N304">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14976,10 +14976,10 @@
         <v>0.869565</v>
       </c>
       <c r="M309">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N309">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15064,10 +15064,10 @@
         <v>1</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N311">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15812,10 +15812,10 @@
         <v>1</v>
       </c>
       <c r="M328">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N328">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -16472,10 +16472,10 @@
         <v>1</v>
       </c>
       <c r="M343">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N343">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -16516,10 +16516,10 @@
         <v>1</v>
       </c>
       <c r="M344">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N344">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -17220,10 +17220,10 @@
         <v>0.5</v>
       </c>
       <c r="M360">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N360">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -17264,10 +17264,10 @@
         <v>0.5</v>
       </c>
       <c r="M361">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N361">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="362" spans="1:14">

--- a/relatorios/repasses_liberados/dentistas/01018935401/2023-08-25_relatorio_repasses_01018935401.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01018935401/2023-08-25_relatorio_repasses_01018935401.xlsx
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N16">
-        <v>29.88</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N27">
-        <v>30.156</v>
+        <v>40.208</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N41">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3228,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N43">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N44">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3360,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3580,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="M50">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N50">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3712,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N53">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3756,10 +3756,10 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N54">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3800,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3844,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3888,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N57">
-        <v>27.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3976,10 +3976,10 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N59">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4240,10 +4240,10 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N65">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4284,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N66">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4328,10 +4328,10 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4372,10 +4372,10 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4416,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4460,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N70">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4592,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4636,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4812,10 +4812,10 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4856,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4988,10 +4988,10 @@
         <v>1</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5032,10 +5032,10 @@
         <v>0.5</v>
       </c>
       <c r="M83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N83">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5076,10 +5076,10 @@
         <v>0.5</v>
       </c>
       <c r="M84">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N84">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5208,10 +5208,10 @@
         <v>1</v>
       </c>
       <c r="M87">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N87">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5428,10 +5428,10 @@
         <v>1</v>
       </c>
       <c r="M92">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N92">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="M96">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N96">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5780,10 +5780,10 @@
         <v>0.465116</v>
       </c>
       <c r="M100">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N100">
-        <v>14.883712</v>
+        <v>11.162784</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6220,10 +6220,10 @@
         <v>1</v>
       </c>
       <c r="M110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N110">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6264,10 +6264,10 @@
         <v>1</v>
       </c>
       <c r="M111">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N111">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6352,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6616,10 +6616,10 @@
         <v>1</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
-        <v>22.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6836,10 +6836,10 @@
         <v>1</v>
       </c>
       <c r="M124">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6968,10 +6968,10 @@
         <v>1</v>
       </c>
       <c r="M127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N127">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7056,10 +7056,10 @@
         <v>1</v>
       </c>
       <c r="M129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7232,10 +7232,10 @@
         <v>0.066667</v>
       </c>
       <c r="M133">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N133">
-        <v>0.4266688000000001</v>
+        <v>0.3200016</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7320,10 +7320,10 @@
         <v>1</v>
       </c>
       <c r="M135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N135">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7408,10 +7408,10 @@
         <v>0.870536</v>
       </c>
       <c r="M137">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N137">
-        <v>50.926356</v>
+        <v>67.901808</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7496,10 +7496,10 @@
         <v>0.875</v>
       </c>
       <c r="M139">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N139">
-        <v>65</v>
+        <v>18.375</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7540,10 +7540,10 @@
         <v>0.125</v>
       </c>
       <c r="M140">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
-        <v>65</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7584,10 +7584,10 @@
         <v>1</v>
       </c>
       <c r="M141">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7848,10 +7848,10 @@
         <v>1</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -8068,10 +8068,10 @@
         <v>1</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8288,10 +8288,10 @@
         <v>1</v>
       </c>
       <c r="M157">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N157">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>1</v>
       </c>
       <c r="M168">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N168">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8816,10 +8816,10 @@
         <v>0.465116</v>
       </c>
       <c r="M169">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N169">
-        <v>11.162784</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -8860,10 +8860,10 @@
         <v>1</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9036,10 +9036,10 @@
         <v>1</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N174">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9080,10 +9080,10 @@
         <v>1</v>
       </c>
       <c r="M175">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N175">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9212,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="M178">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N178">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9300,10 +9300,10 @@
         <v>1</v>
       </c>
       <c r="M180">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N180">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9344,10 +9344,10 @@
         <v>0.465116</v>
       </c>
       <c r="M181">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N181">
-        <v>14.883712</v>
+        <v>11.162784</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9432,10 +9432,10 @@
         <v>1</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N183">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9608,10 +9608,10 @@
         <v>0.465116</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>11.162784</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9828,10 +9828,10 @@
         <v>1</v>
       </c>
       <c r="M192">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N192">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9872,10 +9872,10 @@
         <v>1</v>
       </c>
       <c r="M193">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N193">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9916,10 +9916,10 @@
         <v>1</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N194">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10004,10 +10004,10 @@
         <v>1</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N196">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10400,10 +10400,10 @@
         <v>1</v>
       </c>
       <c r="M205">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N205">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -10620,10 +10620,10 @@
         <v>1</v>
       </c>
       <c r="M210">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N210">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10708,10 +10708,10 @@
         <v>1</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10752,10 +10752,10 @@
         <v>1</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -11060,10 +11060,10 @@
         <v>0.1</v>
       </c>
       <c r="M220">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N220">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -11104,10 +11104,10 @@
         <v>1</v>
       </c>
       <c r="M221">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N221">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -11236,10 +11236,10 @@
         <v>1</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11632,10 +11632,10 @@
         <v>1</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N233">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11676,10 +11676,10 @@
         <v>1</v>
       </c>
       <c r="M234">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N234">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11720,10 +11720,10 @@
         <v>1</v>
       </c>
       <c r="M235">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N235">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11896,10 +11896,10 @@
         <v>1</v>
       </c>
       <c r="M239">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N239">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11940,10 +11940,10 @@
         <v>1</v>
       </c>
       <c r="M240">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -12248,10 +12248,10 @@
         <v>1</v>
       </c>
       <c r="M247">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N247">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12292,10 +12292,10 @@
         <v>1</v>
       </c>
       <c r="M248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N248">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12336,10 +12336,10 @@
         <v>1</v>
       </c>
       <c r="M249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N249">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12512,10 +12512,10 @@
         <v>1</v>
       </c>
       <c r="M253">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N253">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12556,10 +12556,10 @@
         <v>1</v>
       </c>
       <c r="M254">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N254">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12644,10 +12644,10 @@
         <v>1</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N256">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N257">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12732,10 +12732,10 @@
         <v>1</v>
       </c>
       <c r="M258">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N258">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12952,10 +12952,10 @@
         <v>1</v>
       </c>
       <c r="M263">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N263">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -13172,10 +13172,10 @@
         <v>0.263158</v>
       </c>
       <c r="M268">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N268">
-        <v>6.315792</v>
+        <v>8.421056</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -13348,10 +13348,10 @@
         <v>1</v>
       </c>
       <c r="M272">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N272">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -13700,10 +13700,10 @@
         <v>1</v>
       </c>
       <c r="M280">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N280">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13744,10 +13744,10 @@
         <v>0.534884</v>
       </c>
       <c r="M281">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N281">
-        <v>19.6837312</v>
+        <v>14.7627984</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13788,10 +13788,10 @@
         <v>0.465116</v>
       </c>
       <c r="M282">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N282">
-        <v>14.883712</v>
+        <v>11.162784</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -13876,10 +13876,10 @@
         <v>1</v>
       </c>
       <c r="M284">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N284">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -14008,10 +14008,10 @@
         <v>0.888889</v>
       </c>
       <c r="M287">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N287">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -14052,10 +14052,10 @@
         <v>0.111111</v>
       </c>
       <c r="M288">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N288">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -14096,10 +14096,10 @@
         <v>1</v>
       </c>
       <c r="M289">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N289">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -14228,10 +14228,10 @@
         <v>1</v>
       </c>
       <c r="M292">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14316,10 +14316,10 @@
         <v>0.465116</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
-        <v>14.883712</v>
+        <v>11.162784</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14448,10 +14448,10 @@
         <v>1</v>
       </c>
       <c r="M297">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N297">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14712,10 +14712,10 @@
         <v>1</v>
       </c>
       <c r="M303">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N303">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14756,10 +14756,10 @@
         <v>1</v>
       </c>
       <c r="M304">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14888,10 +14888,10 @@
         <v>1</v>
       </c>
       <c r="M307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -14932,10 +14932,10 @@
         <v>1</v>
       </c>
       <c r="M308">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N308">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -14976,10 +14976,10 @@
         <v>0.869565</v>
       </c>
       <c r="M309">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
-        <v>0</v>
+        <v>20.86956</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15064,10 +15064,10 @@
         <v>1</v>
       </c>
       <c r="M311">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N311">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15108,10 +15108,10 @@
         <v>1</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -15152,10 +15152,10 @@
         <v>1</v>
       </c>
       <c r="M313">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N313">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15196,10 +15196,10 @@
         <v>1</v>
       </c>
       <c r="M314">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N314">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15372,10 +15372,10 @@
         <v>1</v>
       </c>
       <c r="M318">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N318">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15592,10 +15592,10 @@
         <v>1</v>
       </c>
       <c r="M323">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N323">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -15812,10 +15812,10 @@
         <v>1</v>
       </c>
       <c r="M328">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -15856,10 +15856,10 @@
         <v>1</v>
       </c>
       <c r="M329">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N329">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -15900,10 +15900,10 @@
         <v>1</v>
       </c>
       <c r="M330">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N330">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -15944,10 +15944,10 @@
         <v>1</v>
       </c>
       <c r="M331">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N331">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -16120,10 +16120,10 @@
         <v>0.111111</v>
       </c>
       <c r="M335">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N335">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16384,10 +16384,10 @@
         <v>1</v>
       </c>
       <c r="M341">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -17044,10 +17044,10 @@
         <v>1</v>
       </c>
       <c r="M356">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N356">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -17220,10 +17220,10 @@
         <v>0.5</v>
       </c>
       <c r="M360">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N360">
-        <v>0</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -17264,10 +17264,10 @@
         <v>0.5</v>
       </c>
       <c r="M361">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N361">
-        <v>65</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -17616,7 +17616,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -17880,7 +17880,7 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N375">
         <v>0</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N377">
         <v>0</v>
